--- a/Code/Results/Cases/Case_0_187/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_187/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03110650079339905</v>
+        <v>0.01009912971426274</v>
       </c>
       <c r="D2">
-        <v>0.06019324333132303</v>
+        <v>0.2086397667512188</v>
       </c>
       <c r="E2">
-        <v>0.03164204464543952</v>
+        <v>0.1384784843672278</v>
       </c>
       <c r="F2">
-        <v>0.8446583834838748</v>
+        <v>0.9742199749630345</v>
       </c>
       <c r="G2">
-        <v>0.7322331950499148</v>
+        <v>0.5220045999748919</v>
       </c>
       <c r="H2">
-        <v>0.4177828082895019</v>
+        <v>0.6023598286429177</v>
       </c>
       <c r="I2">
-        <v>0.5863562061605023</v>
+        <v>0.4992511511406406</v>
       </c>
       <c r="J2">
-        <v>0.02538634589602706</v>
+        <v>0.1266996949940236</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.451478022282672</v>
+        <v>0.9905937505642157</v>
       </c>
       <c r="N2">
-        <v>4.198751700813148</v>
+        <v>1.84123699884762</v>
       </c>
       <c r="O2">
-        <v>2.379334887554165</v>
+        <v>2.214692398426905</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02706145781614566</v>
+        <v>0.0088347248592342</v>
       </c>
       <c r="D3">
-        <v>0.06189928624899821</v>
+        <v>0.2107843056542471</v>
       </c>
       <c r="E3">
-        <v>0.03457259605712792</v>
+        <v>0.1408488805396018</v>
       </c>
       <c r="F3">
-        <v>0.7590807035352753</v>
+        <v>0.9612592743262809</v>
       </c>
       <c r="G3">
-        <v>0.6429873513352504</v>
+        <v>0.5031577323008349</v>
       </c>
       <c r="H3">
-        <v>0.3813043927603985</v>
+        <v>0.597773173649685</v>
       </c>
       <c r="I3">
-        <v>0.5187896856082759</v>
+        <v>0.4857701222296669</v>
       </c>
       <c r="J3">
-        <v>0.02904261943083175</v>
+        <v>0.1294708681176888</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.138792527595385</v>
+        <v>0.8893978198603776</v>
       </c>
       <c r="N3">
-        <v>3.737957501693529</v>
+        <v>1.688899177393893</v>
       </c>
       <c r="O3">
-        <v>2.113363352261842</v>
+        <v>2.164785012502904</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02458310174838374</v>
+        <v>0.008055339008620876</v>
       </c>
       <c r="D4">
-        <v>0.06308094608658621</v>
+        <v>0.2121913117179908</v>
       </c>
       <c r="E4">
-        <v>0.03651458331017388</v>
+        <v>0.1423884038848673</v>
       </c>
       <c r="F4">
-        <v>0.7080480575379653</v>
+        <v>0.9539519831289596</v>
       </c>
       <c r="G4">
-        <v>0.589315612274163</v>
+        <v>0.4919662729261916</v>
       </c>
       <c r="H4">
-        <v>0.3595898391748733</v>
+        <v>0.5952926965673981</v>
       </c>
       <c r="I4">
-        <v>0.4781858007354884</v>
+        <v>0.4778307403205133</v>
       </c>
       <c r="J4">
-        <v>0.03146898871489334</v>
+        <v>0.131268994889846</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.946317195092917</v>
+        <v>0.8270665925857514</v>
       </c>
       <c r="N4">
-        <v>3.45543065248043</v>
+        <v>1.595513221938916</v>
       </c>
       <c r="O4">
-        <v>1.953859299304867</v>
+        <v>2.135638093219683</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02357407393687794</v>
+        <v>0.007736977361275876</v>
       </c>
       <c r="D5">
-        <v>0.06359505932910636</v>
+        <v>0.2127873685217736</v>
       </c>
       <c r="E5">
-        <v>0.03734035523462387</v>
+        <v>0.1430368842201064</v>
       </c>
       <c r="F5">
-        <v>0.6876021577507174</v>
+        <v>0.9511375656791756</v>
       </c>
       <c r="G5">
-        <v>0.5677002401627504</v>
+        <v>0.4875011037456005</v>
       </c>
       <c r="H5">
-        <v>0.3509005151259998</v>
+        <v>0.5943662932079974</v>
       </c>
       <c r="I5">
-        <v>0.461841622882794</v>
+        <v>0.4746802481935646</v>
       </c>
       <c r="J5">
-        <v>0.03250124149052191</v>
+        <v>0.1320259828053736</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.867754899964808</v>
+        <v>0.8016193278745902</v>
       </c>
       <c r="N5">
-        <v>3.340385937506795</v>
+        <v>1.55750004701909</v>
       </c>
       <c r="O5">
-        <v>1.889734090850538</v>
+        <v>2.124136176474565</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02340656964567955</v>
+        <v>0.007684068248302367</v>
       </c>
       <c r="D6">
-        <v>0.06368236215663714</v>
+        <v>0.2128877136334069</v>
       </c>
       <c r="E6">
-        <v>0.03747950977894554</v>
+        <v>0.1431458380303616</v>
       </c>
       <c r="F6">
-        <v>0.6842274434806654</v>
+        <v>0.9506800934321404</v>
       </c>
       <c r="G6">
-        <v>0.5641257497245817</v>
+        <v>0.4867654225812998</v>
       </c>
       <c r="H6">
-        <v>0.3494669480682546</v>
+        <v>0.5942175624421253</v>
       </c>
       <c r="I6">
-        <v>0.4591393459394908</v>
+        <v>0.4741622336033373</v>
       </c>
       <c r="J6">
-        <v>0.03267521241703042</v>
+        <v>0.1321531422065618</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.854701889668206</v>
+        <v>0.7973910809791533</v>
       </c>
       <c r="N6">
-        <v>3.321287745892562</v>
+        <v>1.551190683516836</v>
       </c>
       <c r="O6">
-        <v>1.879136610399712</v>
+        <v>2.122248965307193</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02456949044398016</v>
+        <v>0.008051048520762549</v>
       </c>
       <c r="D7">
-        <v>0.06308774918444726</v>
+        <v>0.2121992584805206</v>
       </c>
       <c r="E7">
-        <v>0.03652558258190197</v>
+        <v>0.1423970640797592</v>
       </c>
       <c r="F7">
-        <v>0.7077709370329615</v>
+        <v>0.9539133657856382</v>
       </c>
       <c r="G7">
-        <v>0.5890230963483845</v>
+        <v>0.4919056680031844</v>
       </c>
       <c r="H7">
-        <v>0.35947202173395</v>
+        <v>0.5952798610123295</v>
       </c>
       <c r="I7">
-        <v>0.4779645837404445</v>
+        <v>0.4777879082163423</v>
       </c>
       <c r="J7">
-        <v>0.03148273669883173</v>
+        <v>0.1312791058378537</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.945258196828803</v>
+        <v>0.8267235878039401</v>
       </c>
       <c r="N7">
-        <v>3.453878783101658</v>
+        <v>1.595000385294242</v>
       </c>
       <c r="O7">
-        <v>1.952991051270089</v>
+        <v>2.13548145399389</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02971040908782641</v>
+        <v>0.00966379745664625</v>
       </c>
       <c r="D8">
-        <v>0.06075293696500594</v>
+        <v>0.2093604701516512</v>
       </c>
       <c r="E8">
-        <v>0.0326219980484006</v>
+        <v>0.1392783243441729</v>
       </c>
       <c r="F8">
-        <v>0.8148187282365598</v>
+        <v>0.9696159335544081</v>
       </c>
       <c r="G8">
-        <v>0.701211041303452</v>
+        <v>0.515427043210039</v>
       </c>
       <c r="H8">
-        <v>0.4050555979477792</v>
+        <v>0.6007086531760422</v>
       </c>
       <c r="I8">
-        <v>0.562864006485718</v>
+        <v>0.4945326526210465</v>
       </c>
       <c r="J8">
-        <v>0.02660806937477189</v>
+        <v>0.1276351084440428</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.343761336621242</v>
+        <v>0.9557437251594934</v>
       </c>
       <c r="N8">
-        <v>4.039777203032344</v>
+        <v>1.788682476035973</v>
       </c>
       <c r="O8">
-        <v>2.28678736486421</v>
+        <v>2.197173369715557</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03985418415180675</v>
+        <v>0.01280210068697585</v>
       </c>
       <c r="D9">
-        <v>0.05729296810026696</v>
+        <v>0.2045098370110843</v>
       </c>
       <c r="E9">
-        <v>0.02616755273674842</v>
+        <v>0.1338310884522493</v>
       </c>
       <c r="F9">
-        <v>1.038184363889584</v>
+        <v>1.005585087399382</v>
       </c>
       <c r="G9">
-        <v>0.9314338835790323</v>
+        <v>0.5645870896310754</v>
       </c>
       <c r="H9">
-        <v>0.5004611304666184</v>
+        <v>0.6140206041610696</v>
       </c>
       <c r="I9">
-        <v>0.7372991569280458</v>
+        <v>0.5300593099057593</v>
       </c>
       <c r="J9">
-        <v>0.01858861640903053</v>
+        <v>0.1212583119628592</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.121693584045175</v>
+        <v>1.20708901813677</v>
       </c>
       <c r="N9">
-        <v>5.192694708299882</v>
+        <v>2.169501090075357</v>
       </c>
       <c r="O9">
-        <v>2.975523657958519</v>
+        <v>2.330060758535211</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04737547832006328</v>
+        <v>0.01509294445524745</v>
       </c>
       <c r="D10">
-        <v>0.05551167444110661</v>
+        <v>0.2013828109293101</v>
       </c>
       <c r="E10">
-        <v>0.02225744662597329</v>
+        <v>0.1302383532214595</v>
       </c>
       <c r="F10">
-        <v>1.212644916584338</v>
+        <v>1.03519105649174</v>
       </c>
       <c r="G10">
-        <v>1.108744102233288</v>
+        <v>0.6025799678095325</v>
       </c>
       <c r="H10">
-        <v>0.5751129342198738</v>
+        <v>0.6254311654748506</v>
       </c>
       <c r="I10">
-        <v>0.8717200414263147</v>
+        <v>0.5578155959742332</v>
       </c>
       <c r="J10">
-        <v>0.01378210758541742</v>
+        <v>0.1170453381651608</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.691671238722364</v>
+        <v>1.390617362687124</v>
       </c>
       <c r="N10">
-        <v>6.043461199129013</v>
+        <v>2.449688977505673</v>
       </c>
       <c r="O10">
-        <v>3.508327370457323</v>
+        <v>2.43501745624053</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05081934822769796</v>
+        <v>0.01613187938974647</v>
       </c>
       <c r="D11">
-        <v>0.05488498058198132</v>
+        <v>0.2000551008288767</v>
       </c>
       <c r="E11">
-        <v>0.02068283981542418</v>
+        <v>0.128693180909377</v>
       </c>
       <c r="F11">
-        <v>1.294778919243527</v>
+        <v>1.04935532352151</v>
       </c>
       <c r="G11">
-        <v>1.191646699559698</v>
+        <v>0.6202766614759412</v>
       </c>
       <c r="H11">
-        <v>0.6102783352550603</v>
+        <v>0.6309773209734431</v>
       </c>
       <c r="I11">
-        <v>0.9345736374254727</v>
+        <v>0.5708053663496173</v>
       </c>
       <c r="J11">
-        <v>0.0118659012672695</v>
+        <v>0.1152319337540755</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3.950786706724983</v>
+        <v>1.473838216620607</v>
       </c>
       <c r="N11">
-        <v>6.431632719854179</v>
+        <v>2.577197805748312</v>
       </c>
       <c r="O11">
-        <v>3.757969499364492</v>
+        <v>2.484369917035053</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05212731669774229</v>
+        <v>0.0165248341320634</v>
       </c>
       <c r="D12">
-        <v>0.05467571922870462</v>
+        <v>0.1995659672074801</v>
       </c>
       <c r="E12">
-        <v>0.02011803979801474</v>
+        <v>0.1281209235081149</v>
       </c>
       <c r="F12">
-        <v>1.326326188887293</v>
+        <v>1.054819440764987</v>
       </c>
       <c r="G12">
-        <v>1.223404435220687</v>
+        <v>0.6270377605945043</v>
       </c>
       <c r="H12">
-        <v>0.6237873643415242</v>
+        <v>0.6331286735562855</v>
       </c>
       <c r="I12">
-        <v>0.9586506460127424</v>
+        <v>0.5757766933478337</v>
       </c>
       <c r="J12">
-        <v>0.01118227943581696</v>
+        <v>0.1145601320807437</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.048896619389325</v>
+        <v>1.505310962458466</v>
       </c>
       <c r="N12">
-        <v>6.57881742073107</v>
+        <v>2.625485144295112</v>
       </c>
       <c r="O12">
-        <v>3.853677343223239</v>
+        <v>2.503290394139071</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05184544054004903</v>
+        <v>0.01644022524234856</v>
       </c>
       <c r="D13">
-        <v>0.05471951233677785</v>
+        <v>0.1996707040098151</v>
       </c>
       <c r="E13">
-        <v>0.02023824479124681</v>
+        <v>0.1282435965034781</v>
       </c>
       <c r="F13">
-        <v>1.319511353228492</v>
+        <v>1.053638174832173</v>
       </c>
       <c r="G13">
-        <v>1.216547933951063</v>
+        <v>0.6255789753207637</v>
       </c>
       <c r="H13">
-        <v>0.6208690614045622</v>
+        <v>0.6326630661218644</v>
       </c>
       <c r="I13">
-        <v>0.9534524555188852</v>
+        <v>0.5747036971466599</v>
       </c>
       <c r="J13">
-        <v>0.01132758924696198</v>
+        <v>0.1147041530094182</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.02776717789844</v>
+        <v>1.498534619269009</v>
       </c>
       <c r="N13">
-        <v>6.547109544937939</v>
+        <v>2.61508556401111</v>
       </c>
       <c r="O13">
-        <v>3.833010577720643</v>
+        <v>2.49920521216751</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05092687465398171</v>
+        <v>0.0161642174364971</v>
       </c>
       <c r="D14">
-        <v>0.05486719246875182</v>
+        <v>0.2000145860565112</v>
       </c>
       <c r="E14">
-        <v>0.02063573006740249</v>
+        <v>0.1286458428594681</v>
       </c>
       <c r="F14">
-        <v>1.297365136271907</v>
+        <v>1.049802845631504</v>
       </c>
       <c r="G14">
-        <v>1.194251874754428</v>
+        <v>0.6208317021953462</v>
       </c>
       <c r="H14">
-        <v>0.6113857542384835</v>
+        <v>0.6311532888573197</v>
       </c>
       <c r="I14">
-        <v>0.9365487577259017</v>
+        <v>0.5712133097767236</v>
       </c>
       <c r="J14">
-        <v>0.01180879873605578</v>
+        <v>0.1151763653031219</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>3.958858417337254</v>
+        <v>1.476428339617911</v>
       </c>
       <c r="N14">
-        <v>6.443737672390228</v>
+        <v>2.581170410356776</v>
       </c>
       <c r="O14">
-        <v>3.765819141387965</v>
+        <v>2.48592186721703</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05036474735114638</v>
+        <v>0.01599509352511319</v>
       </c>
       <c r="D15">
-        <v>0.05496135496240839</v>
+        <v>0.2002270005678675</v>
       </c>
       <c r="E15">
-        <v>0.02088336469670615</v>
+        <v>0.1288939071143789</v>
       </c>
       <c r="F15">
-        <v>1.283859320296173</v>
+        <v>1.047466681284675</v>
       </c>
       <c r="G15">
-        <v>1.180643637130544</v>
+        <v>0.6179316491707425</v>
       </c>
       <c r="H15">
-        <v>0.6056026422397451</v>
+        <v>0.6302351681077027</v>
       </c>
       <c r="I15">
-        <v>0.926231610466715</v>
+        <v>0.5690821727044977</v>
       </c>
       <c r="J15">
-        <v>0.01210912033064337</v>
+        <v>0.1154675508392575</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>3.916648733476904</v>
+        <v>1.462882159382332</v>
       </c>
       <c r="N15">
-        <v>6.380445329732538</v>
+        <v>2.560396588984531</v>
       </c>
       <c r="O15">
-        <v>3.724819310755038</v>
+        <v>2.47781563811867</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04715091669987714</v>
+        <v>0.01502498275357311</v>
       </c>
       <c r="D16">
-        <v>0.05555646401949943</v>
+        <v>0.2014714882358035</v>
       </c>
       <c r="E16">
-        <v>0.02236463620863649</v>
+        <v>0.1303411319796939</v>
       </c>
       <c r="F16">
-        <v>1.207336912545756</v>
+        <v>1.034279424940991</v>
       </c>
       <c r="G16">
-        <v>1.1033748546418</v>
+        <v>0.6014317926218098</v>
       </c>
       <c r="H16">
-        <v>0.5728406684901302</v>
+        <v>0.6250758662177986</v>
       </c>
       <c r="I16">
-        <v>0.867649273789354</v>
+        <v>0.5569740064816244</v>
       </c>
       <c r="J16">
-        <v>0.01391303844128711</v>
+        <v>0.1171659289758269</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3.674735075082623</v>
+        <v>1.385173071605735</v>
       </c>
       <c r="N16">
-        <v>6.018118713693752</v>
+        <v>2.44135658039113</v>
       </c>
       <c r="O16">
-        <v>3.492169675107789</v>
+        <v>2.43182455360153</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04518550481521544</v>
+        <v>0.01442902937822765</v>
       </c>
       <c r="D17">
-        <v>0.05596971664380845</v>
+        <v>0.2022592266740233</v>
       </c>
       <c r="E17">
-        <v>0.02332709258252086</v>
+        <v>0.131251828614106</v>
       </c>
       <c r="F17">
-        <v>1.161134518162129</v>
+        <v>1.026368025547995</v>
       </c>
       <c r="G17">
-        <v>1.056576169170398</v>
+        <v>0.5914157817596504</v>
       </c>
       <c r="H17">
-        <v>0.5530643325305675</v>
+        <v>0.6220018601397186</v>
       </c>
       <c r="I17">
-        <v>0.8321685434244941</v>
+        <v>0.5496391884372471</v>
       </c>
       <c r="J17">
-        <v>0.01509107811704835</v>
+        <v>0.1182342845600863</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>3.526293930458394</v>
+        <v>1.337430669977934</v>
       </c>
       <c r="N17">
-        <v>5.79615671926166</v>
+        <v>2.368338844495668</v>
       </c>
       <c r="O17">
-        <v>3.351396326735369</v>
+        <v>2.404022613927452</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0440571194834618</v>
+        <v>0.01408595390880407</v>
       </c>
       <c r="D18">
-        <v>0.05622458780386808</v>
+        <v>0.2027212344085427</v>
       </c>
       <c r="E18">
-        <v>0.02389975027812596</v>
+        <v>0.1317840288706349</v>
       </c>
       <c r="F18">
-        <v>1.134817955221791</v>
+        <v>1.021883126145482</v>
       </c>
       <c r="G18">
-        <v>1.029867260887045</v>
+        <v>0.5856937452736872</v>
       </c>
       <c r="H18">
-        <v>0.5418017730612803</v>
+        <v>0.6202672262860887</v>
       </c>
       <c r="I18">
-        <v>0.811919465764781</v>
+        <v>0.5454545818971397</v>
       </c>
       <c r="J18">
-        <v>0.01579389725730618</v>
+        <v>0.1188584743710566</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>3.440897599811706</v>
+        <v>1.309945526437645</v>
       </c>
       <c r="N18">
-        <v>5.668596880881694</v>
+        <v>2.326345951567532</v>
       </c>
       <c r="O18">
-        <v>3.271102924215597</v>
+        <v>2.38818290471383</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04367540429530692</v>
+        <v>0.013969743421967</v>
       </c>
       <c r="D19">
-        <v>0.05631378473745485</v>
+        <v>0.2028791942240105</v>
       </c>
       <c r="E19">
-        <v>0.02409685671728212</v>
+        <v>0.1319656627351868</v>
       </c>
       <c r="F19">
-        <v>1.125950546419972</v>
+        <v>1.020375862254326</v>
       </c>
       <c r="G19">
-        <v>1.020858668896082</v>
+        <v>0.5837630360314989</v>
       </c>
       <c r="H19">
-        <v>0.5380071844691088</v>
+        <v>0.6196856536804489</v>
       </c>
       <c r="I19">
-        <v>0.8050898069970884</v>
+        <v>0.5440436133245257</v>
       </c>
       <c r="J19">
-        <v>0.01603610297130231</v>
+        <v>0.1190714781664921</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.411980600197936</v>
+        <v>1.30063532413071</v>
       </c>
       <c r="N19">
-        <v>5.625424887728002</v>
+        <v>2.312128877662303</v>
       </c>
       <c r="O19">
-        <v>3.244029254156374</v>
+        <v>2.382845805061862</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04539450786757726</v>
+        <v>0.01449250063356544</v>
       </c>
       <c r="D20">
-        <v>0.05592393559524567</v>
+        <v>0.2021744471621716</v>
       </c>
       <c r="E20">
-        <v>0.02322264802675456</v>
+        <v>0.1311540145970733</v>
       </c>
       <c r="F20">
-        <v>1.166025832538438</v>
+        <v>1.027203423550702</v>
       </c>
       <c r="G20">
-        <v>1.061536102900916</v>
+        <v>0.5924779743566688</v>
       </c>
       <c r="H20">
-        <v>0.5551578037047307</v>
+        <v>0.6223256308197733</v>
       </c>
       <c r="I20">
-        <v>0.8359289100292813</v>
+        <v>0.5504164531072178</v>
       </c>
       <c r="J20">
-        <v>0.01496303931110177</v>
+        <v>0.1181195518714357</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3.542097405828969</v>
+        <v>1.342515535297792</v>
       </c>
       <c r="N20">
-        <v>5.819773710729294</v>
+        <v>2.376111225979912</v>
       </c>
       <c r="O20">
-        <v>3.366311057290432</v>
+        <v>2.406966521160712</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05119656999090694</v>
+        <v>0.01624530038312599</v>
       </c>
       <c r="D21">
-        <v>0.05482304020419093</v>
+        <v>0.1999132092548024</v>
       </c>
       <c r="E21">
-        <v>0.02051810738001691</v>
+        <v>0.1285273438470824</v>
       </c>
       <c r="F21">
-        <v>1.303857553821885</v>
+        <v>1.050926647275119</v>
       </c>
       <c r="G21">
-        <v>1.200790530558123</v>
+        <v>0.6222244677055926</v>
       </c>
       <c r="H21">
-        <v>0.6141658415872087</v>
+        <v>0.6315953587445051</v>
       </c>
       <c r="I21">
-        <v>0.9415060447303745</v>
+        <v>0.5722370983775562</v>
       </c>
       <c r="J21">
-        <v>0.01166628980686735</v>
+        <v>0.1150372602968464</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>3.979098789482435</v>
+        <v>1.482922629611835</v>
       </c>
       <c r="N21">
-        <v>6.474095045406159</v>
+        <v>2.591132081862781</v>
       </c>
       <c r="O21">
-        <v>3.785521959695245</v>
+        <v>2.489817212107369</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05501131881729293</v>
+        <v>0.01738812751186458</v>
       </c>
       <c r="D22">
-        <v>0.05426790242219326</v>
+        <v>0.1985148769399636</v>
       </c>
       <c r="E22">
-        <v>0.01893504500021326</v>
+        <v>0.1268856738673438</v>
       </c>
       <c r="F22">
-        <v>1.396556098557951</v>
+        <v>1.067016580419008</v>
       </c>
       <c r="G22">
-        <v>1.293946790024165</v>
+        <v>0.6420138902556118</v>
       </c>
       <c r="H22">
-        <v>0.6538640451653919</v>
+        <v>0.6379517827566588</v>
       </c>
       <c r="I22">
-        <v>1.012129910030595</v>
+        <v>0.5868035439254697</v>
       </c>
       <c r="J22">
-        <v>0.009758118661892023</v>
+        <v>0.1131096578018775</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4.26464491829519</v>
+        <v>1.574445446003693</v>
       </c>
       <c r="N22">
-        <v>6.902868547218986</v>
+        <v>2.731673157152329</v>
       </c>
       <c r="O22">
-        <v>4.066409826604172</v>
+        <v>2.54531617656869</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05297301198481108</v>
+        <v>0.01677843214324071</v>
       </c>
       <c r="D23">
-        <v>0.05454857878117281</v>
+        <v>0.1992539138230569</v>
       </c>
       <c r="E23">
-        <v>0.01976233641992486</v>
+        <v>0.1277549867204613</v>
       </c>
       <c r="F23">
-        <v>1.346825301526735</v>
+        <v>1.058375420493235</v>
       </c>
       <c r="G23">
-        <v>1.244016531310422</v>
+        <v>0.6314199355352912</v>
       </c>
       <c r="H23">
-        <v>0.6325659138420576</v>
+        <v>0.6345319506428098</v>
       </c>
       <c r="I23">
-        <v>0.9742773498280002</v>
+        <v>0.5790011679014384</v>
       </c>
       <c r="J23">
-        <v>0.01075290236748883</v>
+        <v>0.1141304853632246</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.11224422082239</v>
+        <v>1.525620991452797</v>
       </c>
       <c r="N23">
-        <v>6.673910562932235</v>
+        <v>2.656664124292774</v>
       </c>
       <c r="O23">
-        <v>3.915817115655784</v>
+        <v>2.515571475499542</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04530001278748585</v>
+        <v>0.01446380669240455</v>
       </c>
       <c r="D24">
-        <v>0.05594457948637555</v>
+        <v>0.2022127475521103</v>
       </c>
       <c r="E24">
-        <v>0.02326980736433404</v>
+        <v>0.1311982094392814</v>
       </c>
       <c r="F24">
-        <v>1.163813707134764</v>
+        <v>1.026825542428583</v>
       </c>
       <c r="G24">
-        <v>1.05929310860931</v>
+        <v>0.5919976440276429</v>
       </c>
       <c r="H24">
-        <v>0.5542110131695495</v>
+        <v>0.6221791523807951</v>
       </c>
       <c r="I24">
-        <v>0.8342283856347237</v>
+        <v>0.5500649512154467</v>
       </c>
       <c r="J24">
-        <v>0.01502084631203182</v>
+        <v>0.1181713914437132</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3.534952828562538</v>
+        <v>1.340216783971499</v>
       </c>
       <c r="N24">
-        <v>5.809096318033596</v>
+        <v>2.372597375633518</v>
       </c>
       <c r="O24">
-        <v>3.359566126654272</v>
+        <v>2.405635132204054</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03710030179811241</v>
+        <v>0.0119557129026191</v>
       </c>
       <c r="D25">
-        <v>0.05810135313650733</v>
+        <v>0.2057453744321656</v>
       </c>
       <c r="E25">
-        <v>0.02777514257762315</v>
+        <v>0.1352329507354928</v>
       </c>
       <c r="F25">
-        <v>0.9761051233576552</v>
+        <v>0.9952978478538625</v>
       </c>
       <c r="G25">
-        <v>0.8678669145244982</v>
+        <v>0.5509605252423739</v>
       </c>
       <c r="H25">
-        <v>0.473919369822454</v>
+        <v>0.610133433959362</v>
       </c>
       <c r="I25">
-        <v>0.6891187008646327</v>
+        <v>0.5201588649997504</v>
       </c>
       <c r="J25">
-        <v>0.02057864939162846</v>
+        <v>0.1229007386808219</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.911565146716029</v>
+        <v>1.139284077184058</v>
       </c>
       <c r="N25">
-        <v>4.88024877537606</v>
+        <v>2.066393963795235</v>
       </c>
       <c r="O25">
-        <v>2.784955331892093</v>
+        <v>2.292829574671686</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_187/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_187/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01009912971426274</v>
+        <v>0.03110650079339194</v>
       </c>
       <c r="D2">
-        <v>0.2086397667512188</v>
+        <v>0.06019324333144382</v>
       </c>
       <c r="E2">
-        <v>0.1384784843672278</v>
+        <v>0.03164204464543952</v>
       </c>
       <c r="F2">
-        <v>0.9742199749630345</v>
+        <v>0.844658383483889</v>
       </c>
       <c r="G2">
-        <v>0.5220045999748919</v>
+        <v>0.732233195049929</v>
       </c>
       <c r="H2">
-        <v>0.6023598286429177</v>
+        <v>0.4177828082895161</v>
       </c>
       <c r="I2">
-        <v>0.4992511511406406</v>
+        <v>0.5863562061605094</v>
       </c>
       <c r="J2">
-        <v>0.1266996949940236</v>
+        <v>0.02538634589602262</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9905937505642157</v>
+        <v>2.451478022282672</v>
       </c>
       <c r="N2">
-        <v>1.84123699884762</v>
+        <v>4.198751700813148</v>
       </c>
       <c r="O2">
-        <v>2.214692398426905</v>
+        <v>2.379334887554194</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0088347248592342</v>
+        <v>0.02706145781614566</v>
       </c>
       <c r="D3">
-        <v>0.2107843056542471</v>
+        <v>0.06189928624894492</v>
       </c>
       <c r="E3">
-        <v>0.1408488805396018</v>
+        <v>0.03457259605711283</v>
       </c>
       <c r="F3">
-        <v>0.9612592743262809</v>
+        <v>0.7590807035352753</v>
       </c>
       <c r="G3">
-        <v>0.5031577323008349</v>
+        <v>0.6429873513352504</v>
       </c>
       <c r="H3">
-        <v>0.597773173649685</v>
+        <v>0.3813043927603985</v>
       </c>
       <c r="I3">
-        <v>0.4857701222296669</v>
+        <v>0.5187896856082901</v>
       </c>
       <c r="J3">
-        <v>0.1294708681176888</v>
+        <v>0.02904261943074338</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8893978198603776</v>
+        <v>2.138792527595371</v>
       </c>
       <c r="N3">
-        <v>1.688899177393893</v>
+        <v>3.737957501693529</v>
       </c>
       <c r="O3">
-        <v>2.164785012502904</v>
+        <v>2.113363352261899</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.008055339008620876</v>
+        <v>0.02458310174849743</v>
       </c>
       <c r="D4">
-        <v>0.2121913117179908</v>
+        <v>0.0630809460866395</v>
       </c>
       <c r="E4">
-        <v>0.1423884038848673</v>
+        <v>0.03651458331017343</v>
       </c>
       <c r="F4">
-        <v>0.9539519831289596</v>
+        <v>0.7080480575379653</v>
       </c>
       <c r="G4">
-        <v>0.4919662729261916</v>
+        <v>0.5893156122740777</v>
       </c>
       <c r="H4">
-        <v>0.5952926965673981</v>
+        <v>0.3595898391748733</v>
       </c>
       <c r="I4">
-        <v>0.4778307403205133</v>
+        <v>0.4781858007354955</v>
       </c>
       <c r="J4">
-        <v>0.131268994889846</v>
+        <v>0.03146898871489734</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8270665925857514</v>
+        <v>1.946317195092988</v>
       </c>
       <c r="N4">
-        <v>1.595513221938916</v>
+        <v>3.45543065248043</v>
       </c>
       <c r="O4">
-        <v>2.135638093219683</v>
+        <v>1.953859299304924</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.007736977361275876</v>
+        <v>0.02357407393675715</v>
       </c>
       <c r="D5">
-        <v>0.2127873685217736</v>
+        <v>0.06359505932899623</v>
       </c>
       <c r="E5">
-        <v>0.1430368842201064</v>
+        <v>0.03734035523464074</v>
       </c>
       <c r="F5">
-        <v>0.9511375656791756</v>
+        <v>0.6876021577507174</v>
       </c>
       <c r="G5">
-        <v>0.4875011037456005</v>
+        <v>0.5677002401627931</v>
       </c>
       <c r="H5">
-        <v>0.5943662932079974</v>
+        <v>0.3509005151259998</v>
       </c>
       <c r="I5">
-        <v>0.4746802481935646</v>
+        <v>0.4618416228828082</v>
       </c>
       <c r="J5">
-        <v>0.1320259828053736</v>
+        <v>0.03250124149057965</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8016193278745902</v>
+        <v>1.867754899964794</v>
       </c>
       <c r="N5">
-        <v>1.55750004701909</v>
+        <v>3.340385937506824</v>
       </c>
       <c r="O5">
-        <v>2.124136176474565</v>
+        <v>1.889734090850595</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007684068248302367</v>
+        <v>0.02340656964579324</v>
       </c>
       <c r="D6">
-        <v>0.2128877136334069</v>
+        <v>0.06368236215646661</v>
       </c>
       <c r="E6">
-        <v>0.1431458380303616</v>
+        <v>0.03747950977893177</v>
       </c>
       <c r="F6">
-        <v>0.9506800934321404</v>
+        <v>0.6842274434806654</v>
       </c>
       <c r="G6">
-        <v>0.4867654225812998</v>
+        <v>0.5641257497246528</v>
       </c>
       <c r="H6">
-        <v>0.5942175624421253</v>
+        <v>0.3494669480682688</v>
       </c>
       <c r="I6">
-        <v>0.4741622336033373</v>
+        <v>0.4591393459394908</v>
       </c>
       <c r="J6">
-        <v>0.1321531422065618</v>
+        <v>0.03267521241697757</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7973910809791533</v>
+        <v>1.854701889668235</v>
       </c>
       <c r="N6">
-        <v>1.551190683516836</v>
+        <v>3.321287745892562</v>
       </c>
       <c r="O6">
-        <v>2.122248965307193</v>
+        <v>1.87913661039957</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.008051048520762549</v>
+        <v>0.02456949044409384</v>
       </c>
       <c r="D7">
-        <v>0.2121992584805206</v>
+        <v>0.06308774918438687</v>
       </c>
       <c r="E7">
-        <v>0.1423970640797592</v>
+        <v>0.03652558258190153</v>
       </c>
       <c r="F7">
-        <v>0.9539133657856382</v>
+        <v>0.7077709370329615</v>
       </c>
       <c r="G7">
-        <v>0.4919056680031844</v>
+        <v>0.5890230963484413</v>
       </c>
       <c r="H7">
-        <v>0.5952798610123295</v>
+        <v>0.35947202173395</v>
       </c>
       <c r="I7">
-        <v>0.4777879082163423</v>
+        <v>0.4779645837404374</v>
       </c>
       <c r="J7">
-        <v>0.1312791058378537</v>
+        <v>0.03148273669879664</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8267235878039401</v>
+        <v>1.945258196828817</v>
       </c>
       <c r="N7">
-        <v>1.595000385294242</v>
+        <v>3.453878783101544</v>
       </c>
       <c r="O7">
-        <v>2.13548145399389</v>
+        <v>1.952991051269976</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.00966379745664625</v>
+        <v>0.02971040908783351</v>
       </c>
       <c r="D8">
-        <v>0.2093604701516512</v>
+        <v>0.06075293696505923</v>
       </c>
       <c r="E8">
-        <v>0.1392783243441729</v>
+        <v>0.03262199804839971</v>
       </c>
       <c r="F8">
-        <v>0.9696159335544081</v>
+        <v>0.814818728236574</v>
       </c>
       <c r="G8">
-        <v>0.515427043210039</v>
+        <v>0.701211041303452</v>
       </c>
       <c r="H8">
-        <v>0.6007086531760422</v>
+        <v>0.405055597947765</v>
       </c>
       <c r="I8">
-        <v>0.4945326526210465</v>
+        <v>0.5628640064857038</v>
       </c>
       <c r="J8">
-        <v>0.1276351084440428</v>
+        <v>0.02660806937470972</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9557437251594934</v>
+        <v>2.343761336621242</v>
       </c>
       <c r="N8">
-        <v>1.788682476035973</v>
+        <v>4.039777203032344</v>
       </c>
       <c r="O8">
-        <v>2.197173369715557</v>
+        <v>2.286787364864182</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01280210068697585</v>
+        <v>0.03985418415166464</v>
       </c>
       <c r="D9">
-        <v>0.2045098370110843</v>
+        <v>0.05729296810033446</v>
       </c>
       <c r="E9">
-        <v>0.1338310884522493</v>
+        <v>0.02616755273673466</v>
       </c>
       <c r="F9">
-        <v>1.005585087399382</v>
+        <v>1.03818436388957</v>
       </c>
       <c r="G9">
-        <v>0.5645870896310754</v>
+        <v>0.9314338835789755</v>
       </c>
       <c r="H9">
-        <v>0.6140206041610696</v>
+        <v>0.5004611304666184</v>
       </c>
       <c r="I9">
-        <v>0.5300593099057593</v>
+        <v>0.7372991569280458</v>
       </c>
       <c r="J9">
-        <v>0.1212583119628592</v>
+        <v>0.01858861640912712</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.20708901813677</v>
+        <v>3.12169358404519</v>
       </c>
       <c r="N9">
-        <v>2.169501090075357</v>
+        <v>5.192694708299882</v>
       </c>
       <c r="O9">
-        <v>2.330060758535211</v>
+        <v>2.975523657958632</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01509294445524745</v>
+        <v>0.04737547831991407</v>
       </c>
       <c r="D10">
-        <v>0.2013828109293101</v>
+        <v>0.055511674441032</v>
       </c>
       <c r="E10">
-        <v>0.1302383532214595</v>
+        <v>0.02225744662598839</v>
       </c>
       <c r="F10">
-        <v>1.03519105649174</v>
+        <v>1.212644916584338</v>
       </c>
       <c r="G10">
-        <v>0.6025799678095325</v>
+        <v>1.108744102233317</v>
       </c>
       <c r="H10">
-        <v>0.6254311654748506</v>
+        <v>0.5751129342197885</v>
       </c>
       <c r="I10">
-        <v>0.5578155959742332</v>
+        <v>0.8717200414263004</v>
       </c>
       <c r="J10">
-        <v>0.1170453381651608</v>
+        <v>0.01378210758542142</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.390617362687124</v>
+        <v>3.691671238722321</v>
       </c>
       <c r="N10">
-        <v>2.449688977505673</v>
+        <v>6.043461199129013</v>
       </c>
       <c r="O10">
-        <v>2.43501745624053</v>
+        <v>3.508327370457323</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01613187938974647</v>
+        <v>0.05081934822754874</v>
       </c>
       <c r="D11">
-        <v>0.2000551008288767</v>
+        <v>0.05488498058201685</v>
       </c>
       <c r="E11">
-        <v>0.128693180909377</v>
+        <v>0.02068283981542596</v>
       </c>
       <c r="F11">
-        <v>1.04935532352151</v>
+        <v>1.294778919243541</v>
       </c>
       <c r="G11">
-        <v>0.6202766614759412</v>
+        <v>1.191646699559669</v>
       </c>
       <c r="H11">
-        <v>0.6309773209734431</v>
+        <v>0.610278335254975</v>
       </c>
       <c r="I11">
-        <v>0.5708053663496173</v>
+        <v>0.9345736374254869</v>
       </c>
       <c r="J11">
-        <v>0.1152319337540755</v>
+        <v>0.01186590126731124</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.473838216620607</v>
+        <v>3.950786706725012</v>
       </c>
       <c r="N11">
-        <v>2.577197805748312</v>
+        <v>6.431632719854235</v>
       </c>
       <c r="O11">
-        <v>2.484369917035053</v>
+        <v>3.757969499364435</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0165248341320634</v>
+        <v>0.05212731669774939</v>
       </c>
       <c r="D12">
-        <v>0.1995659672074801</v>
+        <v>0.05467571922877568</v>
       </c>
       <c r="E12">
-        <v>0.1281209235081149</v>
+        <v>0.02011803979803339</v>
       </c>
       <c r="F12">
-        <v>1.054819440764987</v>
+        <v>1.326326188887293</v>
       </c>
       <c r="G12">
-        <v>0.6270377605945043</v>
+        <v>1.223404435220658</v>
       </c>
       <c r="H12">
-        <v>0.6331286735562855</v>
+        <v>0.6237873643415242</v>
       </c>
       <c r="I12">
-        <v>0.5757766933478337</v>
+        <v>0.9586506460127566</v>
       </c>
       <c r="J12">
-        <v>0.1145601320807437</v>
+        <v>0.01118227943579786</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.505310962458466</v>
+        <v>4.048896619389296</v>
       </c>
       <c r="N12">
-        <v>2.625485144295112</v>
+        <v>6.578817420731298</v>
       </c>
       <c r="O12">
-        <v>2.503290394139071</v>
+        <v>3.853677343223239</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01644022524234856</v>
+        <v>0.05184544054004903</v>
       </c>
       <c r="D13">
-        <v>0.1996707040098151</v>
+        <v>0.0547195123367068</v>
       </c>
       <c r="E13">
-        <v>0.1282435965034781</v>
+        <v>0.02023824479125658</v>
       </c>
       <c r="F13">
-        <v>1.053638174832173</v>
+        <v>1.319511353228492</v>
       </c>
       <c r="G13">
-        <v>0.6255789753207637</v>
+        <v>1.216547933951063</v>
       </c>
       <c r="H13">
-        <v>0.6326630661218644</v>
+        <v>0.6208690614045622</v>
       </c>
       <c r="I13">
-        <v>0.5747036971466599</v>
+        <v>0.953452455518871</v>
       </c>
       <c r="J13">
-        <v>0.1147041530094182</v>
+        <v>0.0113275892468363</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.498534619269009</v>
+        <v>4.027767177898426</v>
       </c>
       <c r="N13">
-        <v>2.61508556401111</v>
+        <v>6.547109544937825</v>
       </c>
       <c r="O13">
-        <v>2.49920521216751</v>
+        <v>3.833010577720586</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0161642174364971</v>
+        <v>0.0509268746540954</v>
       </c>
       <c r="D14">
-        <v>0.2000145860565112</v>
+        <v>0.05486719246874472</v>
       </c>
       <c r="E14">
-        <v>0.1286458428594681</v>
+        <v>0.02063573006740249</v>
       </c>
       <c r="F14">
-        <v>1.049802845631504</v>
+        <v>1.297365136271921</v>
       </c>
       <c r="G14">
-        <v>0.6208317021953462</v>
+        <v>1.194251874754457</v>
       </c>
       <c r="H14">
-        <v>0.6311532888573197</v>
+        <v>0.6113857542383698</v>
       </c>
       <c r="I14">
-        <v>0.5712133097767236</v>
+        <v>0.9365487577259017</v>
       </c>
       <c r="J14">
-        <v>0.1151763653031219</v>
+        <v>0.01180879873611174</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.476428339617911</v>
+        <v>3.958858417337282</v>
       </c>
       <c r="N14">
-        <v>2.581170410356776</v>
+        <v>6.443737672390284</v>
       </c>
       <c r="O14">
-        <v>2.48592186721703</v>
+        <v>3.765819141387965</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01599509352511319</v>
+        <v>0.05036474735114638</v>
       </c>
       <c r="D15">
-        <v>0.2002270005678675</v>
+        <v>0.0549613549622876</v>
       </c>
       <c r="E15">
-        <v>0.1288939071143789</v>
+        <v>0.0208833646966724</v>
       </c>
       <c r="F15">
-        <v>1.047466681284675</v>
+        <v>1.283859320296187</v>
       </c>
       <c r="G15">
-        <v>0.6179316491707425</v>
+        <v>1.180643637130601</v>
       </c>
       <c r="H15">
-        <v>0.6302351681077027</v>
+        <v>0.6056026422397736</v>
       </c>
       <c r="I15">
-        <v>0.5690821727044977</v>
+        <v>0.9262316104667292</v>
       </c>
       <c r="J15">
-        <v>0.1154675508392575</v>
+        <v>0.01210912033065004</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.462882159382332</v>
+        <v>3.916648733476919</v>
       </c>
       <c r="N15">
-        <v>2.560396588984531</v>
+        <v>6.380445329732424</v>
       </c>
       <c r="O15">
-        <v>2.47781563811867</v>
+        <v>3.724819310755038</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01502498275357311</v>
+        <v>0.04715091670014715</v>
       </c>
       <c r="D16">
-        <v>0.2014714882358035</v>
+        <v>0.05555646401961312</v>
       </c>
       <c r="E16">
-        <v>0.1303411319796939</v>
+        <v>0.02236463620865159</v>
       </c>
       <c r="F16">
-        <v>1.034279424940991</v>
+        <v>1.207336912545756</v>
       </c>
       <c r="G16">
-        <v>0.6014317926218098</v>
+        <v>1.1033748546418</v>
       </c>
       <c r="H16">
-        <v>0.6250758662177986</v>
+        <v>0.5728406684902438</v>
       </c>
       <c r="I16">
-        <v>0.5569740064816244</v>
+        <v>0.867649273789354</v>
       </c>
       <c r="J16">
-        <v>0.1171659289758269</v>
+        <v>0.01391303844127645</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.385173071605735</v>
+        <v>3.674735075082651</v>
       </c>
       <c r="N16">
-        <v>2.44135658039113</v>
+        <v>6.018118713693639</v>
       </c>
       <c r="O16">
-        <v>2.43182455360153</v>
+        <v>3.492169675107732</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01442902937822765</v>
+        <v>0.04518550481533623</v>
       </c>
       <c r="D17">
-        <v>0.2022592266740233</v>
+        <v>0.05596971664381201</v>
       </c>
       <c r="E17">
-        <v>0.131251828614106</v>
+        <v>0.02332709258252086</v>
       </c>
       <c r="F17">
-        <v>1.026368025547995</v>
+        <v>1.161134518162129</v>
       </c>
       <c r="G17">
-        <v>0.5914157817596504</v>
+        <v>1.056576169170398</v>
       </c>
       <c r="H17">
-        <v>0.6220018601397186</v>
+        <v>0.5530643325305675</v>
       </c>
       <c r="I17">
-        <v>0.5496391884372471</v>
+        <v>0.8321685434245083</v>
       </c>
       <c r="J17">
-        <v>0.1182342845600863</v>
+        <v>0.01509107811697552</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.337430669977934</v>
+        <v>3.526293930458422</v>
       </c>
       <c r="N17">
-        <v>2.368338844495668</v>
+        <v>5.796156719261546</v>
       </c>
       <c r="O17">
-        <v>2.404022613927452</v>
+        <v>3.351396326735426</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01408595390880407</v>
+        <v>0.04405711948334812</v>
       </c>
       <c r="D18">
-        <v>0.2027212344085427</v>
+        <v>0.0562245878036407</v>
       </c>
       <c r="E18">
-        <v>0.1317840288706349</v>
+        <v>0.02389975027812641</v>
       </c>
       <c r="F18">
-        <v>1.021883126145482</v>
+        <v>1.134817955221806</v>
       </c>
       <c r="G18">
-        <v>0.5856937452736872</v>
+        <v>1.029867260887045</v>
       </c>
       <c r="H18">
-        <v>0.6202672262860887</v>
+        <v>0.5418017730612803</v>
       </c>
       <c r="I18">
-        <v>0.5454545818971397</v>
+        <v>0.811919465764781</v>
       </c>
       <c r="J18">
-        <v>0.1188584743710566</v>
+        <v>0.01579389725731017</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.309945526437645</v>
+        <v>3.440897599811706</v>
       </c>
       <c r="N18">
-        <v>2.326345951567532</v>
+        <v>5.668596880881694</v>
       </c>
       <c r="O18">
-        <v>2.38818290471383</v>
+        <v>3.271102924215597</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.013969743421967</v>
+        <v>0.04367540429529981</v>
       </c>
       <c r="D19">
-        <v>0.2028791942240105</v>
+        <v>0.05631378473767867</v>
       </c>
       <c r="E19">
-        <v>0.1319656627351868</v>
+        <v>0.02409685671727768</v>
       </c>
       <c r="F19">
-        <v>1.020375862254326</v>
+        <v>1.125950546419958</v>
       </c>
       <c r="G19">
-        <v>0.5837630360314989</v>
+        <v>1.020858668896054</v>
       </c>
       <c r="H19">
-        <v>0.6196856536804489</v>
+        <v>0.5380071844690946</v>
       </c>
       <c r="I19">
-        <v>0.5440436133245257</v>
+        <v>0.8050898069970884</v>
       </c>
       <c r="J19">
-        <v>0.1190714781664921</v>
+        <v>0.01603610297133962</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.30063532413071</v>
+        <v>3.411980600197936</v>
       </c>
       <c r="N19">
-        <v>2.312128877662303</v>
+        <v>5.625424887727888</v>
       </c>
       <c r="O19">
-        <v>2.382845805061862</v>
+        <v>3.244029254156374</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01449250063356544</v>
+        <v>0.04539450786757016</v>
       </c>
       <c r="D20">
-        <v>0.2021744471621716</v>
+        <v>0.05592393559523501</v>
       </c>
       <c r="E20">
-        <v>0.1311540145970733</v>
+        <v>0.02322264802676699</v>
       </c>
       <c r="F20">
-        <v>1.027203423550702</v>
+        <v>1.166025832538423</v>
       </c>
       <c r="G20">
-        <v>0.5924779743566688</v>
+        <v>1.061536102900973</v>
       </c>
       <c r="H20">
-        <v>0.6223256308197733</v>
+        <v>0.555157803704617</v>
       </c>
       <c r="I20">
-        <v>0.5504164531072178</v>
+        <v>0.8359289100292742</v>
       </c>
       <c r="J20">
-        <v>0.1181195518714357</v>
+        <v>0.01496303931098231</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.342515535297792</v>
+        <v>3.542097405828983</v>
       </c>
       <c r="N20">
-        <v>2.376111225979912</v>
+        <v>5.81977371072918</v>
       </c>
       <c r="O20">
-        <v>2.406966521160712</v>
+        <v>3.366311057290375</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01624530038312599</v>
+        <v>0.05119656999104194</v>
       </c>
       <c r="D21">
-        <v>0.1999132092548024</v>
+        <v>0.05482304020410567</v>
       </c>
       <c r="E21">
-        <v>0.1285273438470824</v>
+        <v>0.02051810738000892</v>
       </c>
       <c r="F21">
-        <v>1.050926647275119</v>
+        <v>1.303857553821899</v>
       </c>
       <c r="G21">
-        <v>0.6222244677055926</v>
+        <v>1.200790530558066</v>
       </c>
       <c r="H21">
-        <v>0.6315953587445051</v>
+        <v>0.6141658415873223</v>
       </c>
       <c r="I21">
-        <v>0.5722370983775562</v>
+        <v>0.9415060447303745</v>
       </c>
       <c r="J21">
-        <v>0.1150372602968464</v>
+        <v>0.01166628980699835</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.482922629611835</v>
+        <v>3.979098789482421</v>
       </c>
       <c r="N21">
-        <v>2.591132081862781</v>
+        <v>6.474095045406216</v>
       </c>
       <c r="O21">
-        <v>2.489817212107369</v>
+        <v>3.785521959695245</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01738812751186458</v>
+        <v>0.05501131881757715</v>
       </c>
       <c r="D22">
-        <v>0.1985148769399636</v>
+        <v>0.05426790242223234</v>
       </c>
       <c r="E22">
-        <v>0.1268856738673438</v>
+        <v>0.01893504500022747</v>
       </c>
       <c r="F22">
-        <v>1.067016580419008</v>
+        <v>1.39655609855798</v>
       </c>
       <c r="G22">
-        <v>0.6420138902556118</v>
+        <v>1.293946790024108</v>
       </c>
       <c r="H22">
-        <v>0.6379517827566588</v>
+        <v>0.6538640451653919</v>
       </c>
       <c r="I22">
-        <v>0.5868035439254697</v>
+        <v>1.012129910030566</v>
       </c>
       <c r="J22">
-        <v>0.1131096578018775</v>
+        <v>0.009758118661942206</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.574445446003693</v>
+        <v>4.26464491829519</v>
       </c>
       <c r="N22">
-        <v>2.731673157152329</v>
+        <v>6.902868547219043</v>
       </c>
       <c r="O22">
-        <v>2.54531617656869</v>
+        <v>4.066409826604229</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01677843214324071</v>
+        <v>0.05297301198465476</v>
       </c>
       <c r="D23">
-        <v>0.1992539138230569</v>
+        <v>0.05454857878121189</v>
       </c>
       <c r="E23">
-        <v>0.1277549867204613</v>
+        <v>0.01976233641991154</v>
       </c>
       <c r="F23">
-        <v>1.058375420493235</v>
+        <v>1.346825301526721</v>
       </c>
       <c r="G23">
-        <v>0.6314199355352912</v>
+        <v>1.24401653131045</v>
       </c>
       <c r="H23">
-        <v>0.6345319506428098</v>
+        <v>0.6325659138419439</v>
       </c>
       <c r="I23">
-        <v>0.5790011679014384</v>
+        <v>0.9742773498280286</v>
       </c>
       <c r="J23">
-        <v>0.1141304853632246</v>
+        <v>0.01075290236749948</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.525620991452797</v>
+        <v>4.112244220822419</v>
       </c>
       <c r="N23">
-        <v>2.656664124292774</v>
+        <v>6.673910562932235</v>
       </c>
       <c r="O23">
-        <v>2.515571475499542</v>
+        <v>3.915817115655727</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01446380669240455</v>
+        <v>0.04530001278744322</v>
       </c>
       <c r="D24">
-        <v>0.2022127475521103</v>
+        <v>0.05594457948644305</v>
       </c>
       <c r="E24">
-        <v>0.1311982094392814</v>
+        <v>0.02326980736436512</v>
       </c>
       <c r="F24">
-        <v>1.026825542428583</v>
+        <v>1.163813707134764</v>
       </c>
       <c r="G24">
-        <v>0.5919976440276429</v>
+        <v>1.059293108609282</v>
       </c>
       <c r="H24">
-        <v>0.6221791523807951</v>
+        <v>0.5542110131695779</v>
       </c>
       <c r="I24">
-        <v>0.5500649512154467</v>
+        <v>0.8342283856347166</v>
       </c>
       <c r="J24">
-        <v>0.1181713914437132</v>
+        <v>0.01502084631208289</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.340216783971499</v>
+        <v>3.534952828562538</v>
       </c>
       <c r="N24">
-        <v>2.372597375633518</v>
+        <v>5.809096318033824</v>
       </c>
       <c r="O24">
-        <v>2.405635132204054</v>
+        <v>3.359566126654329</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0119557129026191</v>
+        <v>0.03710030179811952</v>
       </c>
       <c r="D25">
-        <v>0.2057453744321656</v>
+        <v>0.05810135313639009</v>
       </c>
       <c r="E25">
-        <v>0.1352329507354928</v>
+        <v>0.02777514257762181</v>
       </c>
       <c r="F25">
-        <v>0.9952978478538625</v>
+        <v>0.9761051233576552</v>
       </c>
       <c r="G25">
-        <v>0.5509605252423739</v>
+        <v>0.8678669145244413</v>
       </c>
       <c r="H25">
-        <v>0.610133433959362</v>
+        <v>0.473919369822454</v>
       </c>
       <c r="I25">
-        <v>0.5201588649997504</v>
+        <v>0.6891187008646327</v>
       </c>
       <c r="J25">
-        <v>0.1229007386808219</v>
+        <v>0.02057864939162291</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.139284077184058</v>
+        <v>2.911565146716057</v>
       </c>
       <c r="N25">
-        <v>2.066393963795235</v>
+        <v>4.88024877537606</v>
       </c>
       <c r="O25">
-        <v>2.292829574671686</v>
+        <v>2.784955331892036</v>
       </c>
     </row>
   </sheetData>
